--- a/templates/excel/dictionary1.xlsx
+++ b/templates/excel/dictionary1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="555">
   <si>
     <t xml:space="preserve">r</t>
   </si>
@@ -2266,8 +2266,8 @@
   </sheetPr>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A207" activeCellId="0" sqref="A207:E207"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2299,13 +2299,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2388,13 +2386,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="120.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -6547,13 +6543,11 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="80.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B248" s="1"/>
       <c r="C248" s="1" t="s">
         <v>543</v>
       </c>
